--- a/Otorgamiento/Mapeos_INV_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_INV_Otorgamiento_V1.xlsx
@@ -2171,7 +2171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="637">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -5925,7 +5925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8724,8 +8724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8989,7 +8989,9 @@
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="G11" s="86" t="s">
+        <v>55</v>
+      </c>
       <c r="L11" s="55"/>
       <c r="M11" s="33">
         <v>10</v>
@@ -9267,8 +9269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9583,7 +9585,9 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="G12" s="86" t="s">
+        <v>55</v>
+      </c>
       <c r="H12" s="46"/>
       <c r="I12" s="33">
         <v>14</v>
@@ -11121,8 +11125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11314,7 +11318,9 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="G9" s="83" t="s">
+        <v>55</v>
+      </c>
       <c r="H9" s="44"/>
       <c r="I9" s="40">
         <v>23</v>
@@ -23295,8 +23301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23572,7 +23578,9 @@
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="G11" s="86" t="s">
+        <v>55</v>
+      </c>
       <c r="H11" s="44"/>
       <c r="I11" s="33">
         <v>26</v>

--- a/Otorgamiento/Mapeos_INV_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_INV_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="732" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="732" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DB_EMPRESA" sheetId="8" r:id="rId1"/>
@@ -2171,7 +2171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="638">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -4082,6 +4082,9 @@
   </si>
   <si>
     <t>Upsert INFO_FCRA</t>
+  </si>
+  <si>
+    <t>ID_EMPL</t>
   </si>
 </sst>
 </file>
@@ -5925,7 +5928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11125,7 +11128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -16808,7 +16811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S114"/>
   <sheetViews>
-    <sheetView topLeftCell="I40" workbookViewId="0">
+    <sheetView topLeftCell="M106" workbookViewId="0">
       <selection activeCell="O108" sqref="O108"/>
     </sheetView>
   </sheetViews>
@@ -19646,10 +19649,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S167"/>
+  <dimension ref="B1:S168"/>
   <sheetViews>
-    <sheetView topLeftCell="L142" workbookViewId="0">
-      <selection activeCell="P174" sqref="P174"/>
+    <sheetView topLeftCell="F106" workbookViewId="0">
+      <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22522,10 +22525,10 @@
       </c>
       <c r="O128" s="31"/>
       <c r="P128" s="103" t="s">
-        <v>417</v>
+        <v>637</v>
       </c>
       <c r="Q128" s="103" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R128" s="31" t="s">
         <v>20</v>
@@ -22535,14 +22538,14 @@
     <row r="129" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L129" s="44"/>
       <c r="M129" s="33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N129" s="31" t="s">
         <v>624</v>
       </c>
       <c r="O129" s="31"/>
       <c r="P129" s="103" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q129" s="103" t="s">
         <v>16</v>
@@ -22562,7 +22565,7 @@
       </c>
       <c r="O130" s="31"/>
       <c r="P130" s="103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q130" s="103" t="s">
         <v>16</v>
@@ -22582,10 +22585,10 @@
       </c>
       <c r="O131" s="31"/>
       <c r="P131" s="103" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q131" s="103" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R131" s="31" t="s">
         <v>20</v>
@@ -22602,10 +22605,10 @@
       </c>
       <c r="O132" s="31"/>
       <c r="P132" s="103" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q132" s="103" t="s">
-        <v>422</v>
+        <v>24</v>
       </c>
       <c r="R132" s="31" t="s">
         <v>20</v>
@@ -22622,7 +22625,7 @@
       </c>
       <c r="O133" s="31"/>
       <c r="P133" s="103" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q133" s="103" t="s">
         <v>422</v>
@@ -22642,224 +22645,226 @@
       </c>
       <c r="O134" s="31"/>
       <c r="P134" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q134" s="103" t="s">
+        <v>422</v>
+      </c>
+      <c r="R134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S134" s="34"/>
+    </row>
+    <row r="135" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L135" s="44"/>
+      <c r="M135" s="33">
+        <v>17</v>
+      </c>
+      <c r="N135" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="O135" s="31"/>
+      <c r="P135" s="103" t="s">
         <v>424</v>
       </c>
-      <c r="Q134" s="103" t="s">
+      <c r="Q135" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="R134" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S134" s="34"/>
-    </row>
-    <row r="135" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="45"/>
-      <c r="M135" s="115">
-        <v>20</v>
-      </c>
-      <c r="N135" s="101" t="s">
+      <c r="R135" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S135" s="34"/>
+    </row>
+    <row r="136" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="45"/>
+      <c r="M136" s="115">
+        <v>20</v>
+      </c>
+      <c r="N136" s="101" t="s">
         <v>624</v>
       </c>
-      <c r="O135" s="116" t="s">
+      <c r="O136" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="P135" s="117" t="s">
+      <c r="P136" s="117" t="s">
         <v>427</v>
       </c>
-      <c r="Q135" s="118" t="s">
+      <c r="Q136" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="R135" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="S135" s="119"/>
-    </row>
-    <row r="136" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L136" s="93"/>
-      <c r="M136" s="40">
+      <c r="R136" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="S136" s="119"/>
+    </row>
+    <row r="137" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L137" s="93"/>
+      <c r="M137" s="40">
         <v>17</v>
       </c>
-      <c r="N136" s="108" t="s">
+      <c r="N137" s="108" t="s">
         <v>626</v>
       </c>
-      <c r="O136" s="108"/>
-      <c r="P136" s="104" t="s">
+      <c r="O137" s="108"/>
+      <c r="P137" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="Q136" s="104" t="s">
+      <c r="Q137" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="R136" s="104">
+      <c r="R137" s="104">
         <v>14</v>
       </c>
-      <c r="S136" s="98"/>
-    </row>
-    <row r="137" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L137" s="44"/>
-      <c r="M137" s="33">
-        <v>17</v>
-      </c>
-      <c r="N137" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="O137" s="28"/>
-      <c r="P137" s="103" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q137" s="103" t="s">
-        <v>476</v>
-      </c>
-      <c r="R137" s="103">
-        <v>14</v>
-      </c>
-      <c r="S137" s="34"/>
+      <c r="S137" s="98"/>
     </row>
     <row r="138" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L138" s="44"/>
-      <c r="M138" s="120">
-        <v>20</v>
-      </c>
-      <c r="N138" s="121" t="s">
+      <c r="M138" s="33">
+        <v>17</v>
+      </c>
+      <c r="N138" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="O138" s="121" t="s">
-        <v>433</v>
-      </c>
-      <c r="P138" s="105" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q138" s="105" t="s">
+      <c r="O138" s="28"/>
+      <c r="P138" s="103" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q138" s="103" t="s">
         <v>476</v>
       </c>
-      <c r="R138" s="105">
+      <c r="R138" s="103">
         <v>14</v>
       </c>
-      <c r="S138" s="102"/>
+      <c r="S138" s="34"/>
     </row>
     <row r="139" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L139" s="44"/>
-      <c r="M139" s="33">
-        <v>22</v>
-      </c>
-      <c r="N139" s="28" t="s">
+      <c r="M139" s="120">
+        <v>20</v>
+      </c>
+      <c r="N139" s="121" t="s">
         <v>626</v>
       </c>
-      <c r="O139" s="28"/>
-      <c r="P139" s="103" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q139" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="R139" s="103"/>
-      <c r="S139" s="34"/>
+      <c r="O139" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="P139" s="105" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q139" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="R139" s="105">
+        <v>14</v>
+      </c>
+      <c r="S139" s="102"/>
     </row>
     <row r="140" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L140" s="44"/>
       <c r="M140" s="33">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N140" s="28" t="s">
         <v>626</v>
       </c>
       <c r="O140" s="28"/>
       <c r="P140" s="103" t="s">
-        <v>18</v>
+        <v>479</v>
       </c>
       <c r="Q140" s="103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R140" s="103"/>
       <c r="S140" s="34"/>
     </row>
     <row r="141" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L141" s="44"/>
-      <c r="M141" s="157">
-        <v>23</v>
-      </c>
-      <c r="N141" s="156" t="s">
+      <c r="M141" s="33">
+        <v>13</v>
+      </c>
+      <c r="N141" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="O141" s="156"/>
-      <c r="P141" s="160" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q141" s="160" t="s">
+      <c r="O141" s="28"/>
+      <c r="P141" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q141" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="R141" s="160"/>
-      <c r="S141" s="159"/>
+      <c r="R141" s="103"/>
+      <c r="S141" s="34"/>
     </row>
     <row r="142" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L142" s="44"/>
-      <c r="M142" s="80">
-        <v>24</v>
-      </c>
-      <c r="N142" s="122" t="s">
+      <c r="M142" s="157">
+        <v>23</v>
+      </c>
+      <c r="N142" s="156" t="s">
         <v>626</v>
       </c>
-      <c r="O142" s="122"/>
-      <c r="P142" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q142" s="123" t="s">
+      <c r="O142" s="156"/>
+      <c r="P142" s="160" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q142" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="R142" s="123"/>
-      <c r="S142" s="63"/>
+      <c r="R142" s="160"/>
+      <c r="S142" s="159"/>
     </row>
     <row r="143" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L143" s="44"/>
-      <c r="M143" s="120">
-        <v>20</v>
-      </c>
-      <c r="N143" s="121" t="s">
+      <c r="M143" s="80">
+        <v>24</v>
+      </c>
+      <c r="N143" s="122" t="s">
         <v>626</v>
       </c>
-      <c r="O143" s="121" t="s">
-        <v>506</v>
-      </c>
-      <c r="P143" s="105" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q143" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="R143" s="105"/>
-      <c r="S143" s="102"/>
+      <c r="O143" s="122"/>
+      <c r="P143" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q143" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="R143" s="123"/>
+      <c r="S143" s="63"/>
     </row>
     <row r="144" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L144" s="44"/>
-      <c r="M144" s="33">
-        <v>14</v>
-      </c>
-      <c r="N144" s="28" t="s">
+      <c r="M144" s="120">
+        <v>20</v>
+      </c>
+      <c r="N144" s="121" t="s">
         <v>626</v>
       </c>
-      <c r="O144" s="28"/>
-      <c r="P144" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q144" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="R144" s="103"/>
-      <c r="S144" s="34"/>
+      <c r="O144" s="121" t="s">
+        <v>506</v>
+      </c>
+      <c r="P144" s="105" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q144" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="R144" s="105"/>
+      <c r="S144" s="102"/>
     </row>
     <row r="145" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L145" s="44"/>
       <c r="M145" s="33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N145" s="28" t="s">
         <v>626</v>
       </c>
       <c r="O145" s="28"/>
       <c r="P145" s="103" t="s">
-        <v>482</v>
+        <v>21</v>
       </c>
       <c r="Q145" s="103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R145" s="103"/>
       <c r="S145" s="34"/>
@@ -22874,7 +22879,7 @@
       </c>
       <c r="O146" s="28"/>
       <c r="P146" s="103" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q146" s="103" t="s">
         <v>24</v>
@@ -22892,7 +22897,7 @@
       </c>
       <c r="O147" s="28"/>
       <c r="P147" s="103" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q147" s="103" t="s">
         <v>24</v>
@@ -22910,7 +22915,7 @@
       </c>
       <c r="O148" s="28"/>
       <c r="P148" s="103" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q148" s="103" t="s">
         <v>24</v>
@@ -22921,52 +22926,52 @@
     <row r="149" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L149" s="44"/>
       <c r="M149" s="33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N149" s="28" t="s">
         <v>626</v>
       </c>
       <c r="O149" s="28"/>
       <c r="P149" s="103" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q149" s="103" t="s">
-        <v>347</v>
-      </c>
-      <c r="R149" s="103">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="R149" s="103"/>
       <c r="S149" s="34"/>
     </row>
     <row r="150" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L150" s="44"/>
       <c r="M150" s="33">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N150" s="28" t="s">
         <v>626</v>
       </c>
       <c r="O150" s="28"/>
       <c r="P150" s="103" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q150" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="R150" s="103"/>
+        <v>347</v>
+      </c>
+      <c r="R150" s="103">
+        <v>20</v>
+      </c>
       <c r="S150" s="34"/>
     </row>
     <row r="151" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L151" s="44"/>
       <c r="M151" s="33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N151" s="28" t="s">
         <v>626</v>
       </c>
       <c r="O151" s="28"/>
       <c r="P151" s="103" t="s">
-        <v>23</v>
+        <v>487</v>
       </c>
       <c r="Q151" s="103" t="s">
         <v>24</v>
@@ -22976,41 +22981,41 @@
     </row>
     <row r="152" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L152" s="44"/>
-      <c r="M152" s="120">
-        <v>20</v>
-      </c>
-      <c r="N152" s="121" t="s">
+      <c r="M152" s="33">
+        <v>15</v>
+      </c>
+      <c r="N152" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="O152" s="121" t="s">
-        <v>433</v>
-      </c>
-      <c r="P152" s="105" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q152" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="R152" s="105"/>
-      <c r="S152" s="102"/>
+      <c r="O152" s="28"/>
+      <c r="P152" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q152" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="R152" s="103"/>
+      <c r="S152" s="34"/>
     </row>
     <row r="153" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L153" s="44"/>
-      <c r="M153" s="33">
-        <v>17</v>
-      </c>
-      <c r="N153" s="28" t="s">
+      <c r="M153" s="120">
+        <v>20</v>
+      </c>
+      <c r="N153" s="121" t="s">
         <v>626</v>
       </c>
-      <c r="O153" s="28"/>
-      <c r="P153" s="103" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q153" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="R153" s="103"/>
-      <c r="S153" s="34"/>
+      <c r="O153" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="P153" s="105" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q153" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="R153" s="105"/>
+      <c r="S153" s="102"/>
     </row>
     <row r="154" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L154" s="44"/>
@@ -23022,7 +23027,7 @@
       </c>
       <c r="O154" s="28"/>
       <c r="P154" s="103" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q154" s="103" t="s">
         <v>24</v>
@@ -23040,35 +23045,33 @@
       </c>
       <c r="O155" s="28"/>
       <c r="P155" s="103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q155" s="103" t="s">
-        <v>476</v>
-      </c>
-      <c r="R155" s="103">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="R155" s="103"/>
       <c r="S155" s="34"/>
     </row>
     <row r="156" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L156" s="44"/>
-      <c r="M156" s="120">
-        <v>20</v>
-      </c>
-      <c r="N156" s="121" t="s">
+      <c r="M156" s="33">
+        <v>17</v>
+      </c>
+      <c r="N156" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="O156" s="121" t="s">
-        <v>506</v>
-      </c>
-      <c r="P156" s="105" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q156" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="R156" s="105"/>
-      <c r="S156" s="102"/>
+      <c r="O156" s="28"/>
+      <c r="P156" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q156" s="103" t="s">
+        <v>476</v>
+      </c>
+      <c r="R156" s="103">
+        <v>14</v>
+      </c>
+      <c r="S156" s="34"/>
     </row>
     <row r="157" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L157" s="44"/>
@@ -23082,7 +23085,7 @@
         <v>506</v>
       </c>
       <c r="P157" s="105" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q157" s="105" t="s">
         <v>16</v>
@@ -23092,23 +23095,23 @@
     </row>
     <row r="158" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L158" s="44"/>
-      <c r="M158" s="33">
-        <v>17</v>
-      </c>
-      <c r="N158" s="28" t="s">
+      <c r="M158" s="120">
+        <v>20</v>
+      </c>
+      <c r="N158" s="121" t="s">
         <v>626</v>
       </c>
-      <c r="O158" s="28"/>
-      <c r="P158" s="103" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q158" s="103" t="s">
-        <v>476</v>
-      </c>
-      <c r="R158" s="103">
-        <v>14</v>
-      </c>
-      <c r="S158" s="34"/>
+      <c r="O158" s="121" t="s">
+        <v>506</v>
+      </c>
+      <c r="P158" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q158" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="R158" s="105"/>
+      <c r="S158" s="102"/>
     </row>
     <row r="159" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L159" s="44"/>
@@ -23120,7 +23123,7 @@
       </c>
       <c r="O159" s="28"/>
       <c r="P159" s="103" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q159" s="103" t="s">
         <v>476</v>
@@ -23140,13 +23143,13 @@
       </c>
       <c r="O160" s="28"/>
       <c r="P160" s="103" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q160" s="103" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="R160" s="103">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S160" s="34"/>
     </row>
@@ -23160,53 +23163,55 @@
       </c>
       <c r="O161" s="28"/>
       <c r="P161" s="103" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q161" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="R161" s="103"/>
+        <v>497</v>
+      </c>
+      <c r="R161" s="103">
+        <v>12</v>
+      </c>
       <c r="S161" s="34"/>
     </row>
     <row r="162" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L162" s="44"/>
-      <c r="M162" s="120">
-        <v>20</v>
-      </c>
-      <c r="N162" s="121" t="s">
+      <c r="M162" s="33">
+        <v>17</v>
+      </c>
+      <c r="N162" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="O162" s="121" t="s">
-        <v>506</v>
-      </c>
-      <c r="P162" s="105" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q162" s="105" t="s">
-        <v>476</v>
-      </c>
-      <c r="R162" s="105">
-        <v>14</v>
-      </c>
-      <c r="S162" s="102"/>
+      <c r="O162" s="28"/>
+      <c r="P162" s="103" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q162" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="R162" s="103"/>
+      <c r="S162" s="34"/>
     </row>
     <row r="163" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L163" s="44"/>
-      <c r="M163" s="33">
-        <v>17</v>
-      </c>
-      <c r="N163" s="28" t="s">
+      <c r="M163" s="120">
+        <v>20</v>
+      </c>
+      <c r="N163" s="121" t="s">
         <v>626</v>
       </c>
-      <c r="O163" s="28"/>
-      <c r="P163" s="103" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q163" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="R163" s="103"/>
-      <c r="S163" s="34"/>
+      <c r="O163" s="121" t="s">
+        <v>506</v>
+      </c>
+      <c r="P163" s="105" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q163" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="R163" s="105">
+        <v>14</v>
+      </c>
+      <c r="S163" s="102"/>
     </row>
     <row r="164" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L164" s="44"/>
@@ -23218,7 +23223,7 @@
       </c>
       <c r="O164" s="28"/>
       <c r="P164" s="103" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q164" s="103" t="s">
         <v>16</v>
@@ -23236,7 +23241,7 @@
       </c>
       <c r="O165" s="28"/>
       <c r="P165" s="103" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q165" s="103" t="s">
         <v>16</v>
@@ -23254,31 +23259,49 @@
       </c>
       <c r="O166" s="28"/>
       <c r="P166" s="103" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q166" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="R166" s="103"/>
+      <c r="S166" s="34"/>
+    </row>
+    <row r="167" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L167" s="44"/>
+      <c r="M167" s="33">
+        <v>17</v>
+      </c>
+      <c r="N167" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="O167" s="28"/>
+      <c r="P167" s="103" t="s">
         <v>503</v>
       </c>
-      <c r="Q166" s="103" t="s">
+      <c r="Q167" s="103" t="s">
         <v>476</v>
       </c>
-      <c r="R166" s="103">
+      <c r="R167" s="103">
         <v>14</v>
       </c>
-      <c r="S166" s="34"/>
-    </row>
-    <row r="167" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L167" s="45"/>
-      <c r="M167" s="113">
+      <c r="S167" s="34"/>
+    </row>
+    <row r="168" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L168" s="45"/>
+      <c r="M168" s="113">
         <v>17</v>
       </c>
-      <c r="N167" s="88" t="s">
+      <c r="N168" s="88" t="s">
         <v>626</v>
       </c>
-      <c r="O167" s="88"/>
-      <c r="P167" s="140" t="s">
+      <c r="O168" s="88"/>
+      <c r="P168" s="140" t="s">
         <v>504</v>
       </c>
-      <c r="Q167" s="140"/>
-      <c r="R167" s="140"/>
-      <c r="S167" s="114"/>
+      <c r="Q168" s="140"/>
+      <c r="R168" s="140"/>
+      <c r="S168" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -27072,10 +27095,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R137"/>
+  <dimension ref="B1:R138"/>
   <sheetViews>
-    <sheetView topLeftCell="I115" workbookViewId="0">
-      <selection activeCell="K139" sqref="K139"/>
+    <sheetView tabSelected="1" topLeftCell="K47" workbookViewId="0">
+      <selection activeCell="O136" sqref="O58:O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29993,56 +30016,73 @@
       <c r="Q134" s="28"/>
       <c r="R134" s="34"/>
     </row>
-    <row r="135" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="45"/>
+    <row r="135" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L135" s="44"/>
       <c r="M135" s="94">
-        <v>37</v>
-      </c>
-      <c r="N135" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="N135" s="31" t="s">
         <v>432</v>
       </c>
       <c r="O135" s="95" t="s">
-        <v>427</v>
-      </c>
-      <c r="P135" s="95" t="s">
+        <v>637</v>
+      </c>
+      <c r="P135" s="31" t="s">
         <v>24</v>
       </c>
       <c r="Q135" s="110"/>
       <c r="R135" s="96"/>
     </row>
-    <row r="136" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L136" s="93"/>
-      <c r="M136" s="40">
+    <row r="136" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="45"/>
+      <c r="M136" s="94">
+        <v>37</v>
+      </c>
+      <c r="N136" s="95" t="s">
+        <v>432</v>
+      </c>
+      <c r="O136" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="P136" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q136" s="110"/>
+      <c r="R136" s="96"/>
+    </row>
+    <row r="137" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L137" s="93"/>
+      <c r="M137" s="40">
         <v>40</v>
       </c>
-      <c r="N136" s="108" t="s">
+      <c r="N137" s="108" t="s">
         <v>632</v>
       </c>
-      <c r="O136" s="108" t="s">
+      <c r="O137" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="P136" s="108" t="s">
+      <c r="P137" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="Q136" s="108"/>
-      <c r="R136" s="98"/>
-    </row>
-    <row r="137" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L137" s="45"/>
-      <c r="M137" s="32">
-        <v>20</v>
-      </c>
-      <c r="N137" s="109" t="s">
+      <c r="Q137" s="108"/>
+      <c r="R137" s="98"/>
+    </row>
+    <row r="138" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L138" s="45"/>
+      <c r="M138" s="32">
+        <v>20</v>
+      </c>
+      <c r="N138" s="109" t="s">
         <v>632</v>
       </c>
-      <c r="O137" s="47" t="s">
+      <c r="O138" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="P137" s="109" t="s">
+      <c r="P138" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="Q137" s="109"/>
-      <c r="R137" s="35"/>
+      <c r="Q138" s="109"/>
+      <c r="R138" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
